--- a/results/table3_results.xlsx
+++ b/results/table3_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox\projects\project_clawback\code_2_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox\projects\project_clawback\homePriceForecastAHS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>NYM</t>
   </si>
@@ -95,9 +95,6 @@
     <t>At-risk</t>
   </si>
   <si>
-    <t>Buyers</t>
-  </si>
-  <si>
     <t>APR</t>
   </si>
   <si>
@@ -140,19 +137,31 @@
     <t>C5: C(K,PB)</t>
   </si>
   <si>
-    <t>C11: MEAN</t>
-  </si>
-  <si>
-    <t>C21: MEDIAN</t>
-  </si>
-  <si>
-    <t>C31: MEAN( TRIM)</t>
-  </si>
-  <si>
-    <t>C41: DMSFE</t>
-  </si>
-  <si>
-    <t>C51: C(K,PB)</t>
+    <t>Potential Buyers</t>
+  </si>
+  <si>
+    <t>At-Risk to PB</t>
+  </si>
+  <si>
+    <t>N1: Lagged Return</t>
+  </si>
+  <si>
+    <t>N2: Hist Mean</t>
+  </si>
+  <si>
+    <t>CM1: MEAN</t>
+  </si>
+  <si>
+    <t>CM2: MEDIAN</t>
+  </si>
+  <si>
+    <t>CM3: MEAN( TRIM)</t>
+  </si>
+  <si>
+    <t>CM4: DMSFE</t>
+  </si>
+  <si>
+    <t>CM5: C(K,PB)</t>
   </si>
 </sst>
 </file>
@@ -474,15 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -609,59 +618,59 @@
         <v>20</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B25" si="0">AVERAGE(C3:S3)</f>
-        <v>1.0910091733387461</v>
+        <f t="shared" ref="B3:B28" si="0">AVERAGE(C3:S3)</f>
+        <v>1.0825336091922946</v>
       </c>
       <c r="C3" s="1">
-        <v>0.980165118071606</v>
+        <v>1.0340913695114999</v>
       </c>
       <c r="D3" s="1">
-        <v>1.1094461236402899</v>
+        <v>1.09131930517927</v>
       </c>
       <c r="E3" s="1">
-        <v>0.97824747467664697</v>
+        <v>1.0492194968938</v>
       </c>
       <c r="F3" s="1">
-        <v>1.09214093876339</v>
+        <v>1.16230426213965</v>
       </c>
       <c r="G3" s="1">
-        <v>1.1482713282461801</v>
+        <v>0.90905191141605701</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0019263986060201</v>
+        <v>1.01024123025961</v>
       </c>
       <c r="I3" s="1">
-        <v>1.63962301825864</v>
+        <v>1.5342129900343</v>
       </c>
       <c r="J3" s="1">
-        <v>0.82292187369564895</v>
+        <v>0.93822675296678204</v>
       </c>
       <c r="K3" s="1">
-        <v>0.96132045757665896</v>
+        <v>1.0820090741570401</v>
       </c>
       <c r="L3" s="1">
-        <v>1.00609390750025</v>
+        <v>1.19630406970944</v>
       </c>
       <c r="M3" s="1">
-        <v>0.83696802344252497</v>
+        <v>0.86525363075167805</v>
       </c>
       <c r="N3" s="1">
-        <v>1.1351320807891001</v>
+        <v>1.1943260586490301</v>
       </c>
       <c r="O3" s="1">
-        <v>1.04894553079998</v>
+        <v>1.11662335573367</v>
       </c>
       <c r="P3" s="1">
-        <v>1.0585175481272899</v>
+        <v>1.11034316909623</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.5594202907335599</v>
+        <v>1.14206702650734</v>
       </c>
       <c r="R3" s="1">
-        <v>1.0517759143718699</v>
+        <v>1.02961527875957</v>
       </c>
       <c r="S3" s="1">
-        <v>1.11623991945903</v>
+        <v>0.93786237450403998</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -670,58 +679,58 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1.0217526269780459</v>
+        <v>1.0202389870288802</v>
       </c>
       <c r="C4" s="1">
-        <v>1.01141252317798</v>
+        <v>1.01526183265948</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0588053621995399</v>
+        <v>0.93682554801934204</v>
       </c>
       <c r="E4" s="1">
-        <v>0.91887530893382796</v>
+        <v>1.0039260448826699</v>
       </c>
       <c r="F4" s="1">
-        <v>1.29285740188149</v>
+        <v>1.4043290332212299</v>
       </c>
       <c r="G4" s="1">
-        <v>1.3006478400978001</v>
+        <v>1.0916320285485299</v>
       </c>
       <c r="H4" s="1">
-        <v>0.96475446148074995</v>
+        <v>0.79542563955024703</v>
       </c>
       <c r="I4" s="1">
-        <v>1.02627373785214</v>
+        <v>1.3358553775265301</v>
       </c>
       <c r="J4" s="1">
-        <v>0.96854808234616396</v>
+        <v>0.994897936438634</v>
       </c>
       <c r="K4" s="1">
-        <v>0.90958112127143398</v>
+        <v>0.961804589390299</v>
       </c>
       <c r="L4" s="1">
-        <v>1.1884884707308701</v>
+        <v>1.14162645789382</v>
       </c>
       <c r="M4" s="1">
-        <v>0.80367778622092101</v>
+        <v>0.85733657843614397</v>
       </c>
       <c r="N4" s="1">
-        <v>1.2977019021769001</v>
+        <v>1.2675418416586299</v>
       </c>
       <c r="O4" s="1">
-        <v>0.87443794328249103</v>
+        <v>0.86975311274160405</v>
       </c>
       <c r="P4" s="1">
-        <v>0.96956006854067001</v>
+        <v>0.94858775279153096</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.0277573164037399</v>
+        <v>1.0185131893299699</v>
       </c>
       <c r="R4" s="1">
-        <v>0.98171184846697801</v>
+        <v>0.90989889856092498</v>
       </c>
       <c r="S4" s="1">
-        <v>0.77470348356308205</v>
+        <v>0.79084691784137995</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -730,1138 +739,1138 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2169946896611603</v>
+        <v>1.1661418669706272</v>
       </c>
       <c r="C5" s="1">
-        <v>1.01968138277472</v>
+        <v>1.05990809257027</v>
       </c>
       <c r="D5" s="1">
-        <v>1.39087498286695</v>
+        <v>1.334485941519</v>
       </c>
       <c r="E5" s="1">
-        <v>1.1802668069149</v>
+        <v>1.1487197895591901</v>
       </c>
       <c r="F5" s="1">
-        <v>1.2922704698690199</v>
+        <v>1.27087781534438</v>
       </c>
       <c r="G5" s="1">
-        <v>1.41729419831359</v>
+        <v>1.0099916232655699</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1468866574613401</v>
+        <v>1.0261610986435801</v>
       </c>
       <c r="I5" s="1">
-        <v>0.957384732408466</v>
+        <v>1.3165876125289</v>
       </c>
       <c r="J5" s="1">
-        <v>1.12470972773193</v>
+        <v>1.15562657757096</v>
       </c>
       <c r="K5" s="1">
-        <v>1.04408692863099</v>
+        <v>1.09447049313978</v>
       </c>
       <c r="L5" s="1">
-        <v>1.2597985024171501</v>
+        <v>1.07647250044219</v>
       </c>
       <c r="M5" s="1">
-        <v>1.4455038214393701</v>
+        <v>1.17359593200384</v>
       </c>
       <c r="N5" s="1">
-        <v>1.2070466321308899</v>
+        <v>1.0398791067834401</v>
       </c>
       <c r="O5" s="1">
-        <v>1.63150630367607</v>
+        <v>1.18360633942083</v>
       </c>
       <c r="P5" s="1">
-        <v>1.4622634468808799</v>
+        <v>1.8072715906807999</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.1769173102958801</v>
+        <v>1.21453564184524</v>
       </c>
       <c r="R5" s="1">
-        <v>0.884869540283996</v>
+        <v>0.93787421019483297</v>
       </c>
       <c r="S5" s="1">
-        <v>1.04754828014358</v>
+        <v>0.97434737298785301</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>1.1192374237440172</v>
+        <v>0.9596916606461332</v>
       </c>
       <c r="C6" s="1">
-        <v>1.11613911063229</v>
+        <v>0.93457803311322496</v>
       </c>
       <c r="D6" s="1">
-        <v>1.31273232487499</v>
+        <v>0.89474037769919401</v>
       </c>
       <c r="E6" s="1">
-        <v>1.1153142177764399</v>
+        <v>0.850723436017917</v>
       </c>
       <c r="F6" s="1">
-        <v>1.3814638407816799</v>
+        <v>1.1543755803835101</v>
       </c>
       <c r="G6" s="1">
-        <v>1.4473264145172899</v>
+        <v>1.1412857430257399</v>
       </c>
       <c r="H6" s="1">
-        <v>1.10932117708716</v>
+        <v>0.97880841386586803</v>
       </c>
       <c r="I6" s="1">
-        <v>1.17879353447838</v>
+        <v>1.1392989671882201</v>
       </c>
       <c r="J6" s="1">
-        <v>0.84520468338340105</v>
+        <v>0.97731174324066195</v>
       </c>
       <c r="K6" s="1">
-        <v>1.1290626617263599</v>
+        <v>0.88835754806407696</v>
       </c>
       <c r="L6" s="1">
-        <v>1.0392016304910101</v>
+        <v>0.90600852570541501</v>
       </c>
       <c r="M6" s="1">
-        <v>1.0052455815624599</v>
+        <v>0.90167427272687095</v>
       </c>
       <c r="N6" s="1">
-        <v>1.0892659904430899</v>
+        <v>0.97094720991705097</v>
       </c>
       <c r="O6" s="1">
-        <v>1.08859046871878</v>
+        <v>0.82156470312537999</v>
       </c>
       <c r="P6" s="1">
-        <v>1.1971008165950101</v>
+        <v>0.93195497292653895</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.964502599089199</v>
+        <v>0.86040704656873401</v>
       </c>
       <c r="R6" s="1">
-        <v>0.98045973287601396</v>
+        <v>0.99564225820346397</v>
       </c>
       <c r="S6" s="1">
-        <v>1.0273114186147401</v>
+        <v>0.96707939921239805</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>1.1382804414391541</v>
+        <v>1.0066497328145783</v>
       </c>
       <c r="C7" s="1">
-        <v>1.14770901569177</v>
+        <v>0.75218647169587904</v>
       </c>
       <c r="D7" s="1">
-        <v>1.16928591321387</v>
+        <v>0.72875757979389899</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0822218146390901</v>
+        <v>0.98495777573264198</v>
       </c>
       <c r="F7" s="1">
-        <v>1.3099814883399801</v>
+        <v>1.3032997361913501</v>
       </c>
       <c r="G7" s="1">
-        <v>1.31757610279632</v>
+        <v>1.0130081833989599</v>
       </c>
       <c r="H7" s="1">
-        <v>1.0121916676559</v>
+        <v>0.98743994967892701</v>
       </c>
       <c r="I7" s="1">
-        <v>1.1471133730443299</v>
+        <v>0.98011753208460795</v>
       </c>
       <c r="J7" s="1">
-        <v>1.01125082915804</v>
+        <v>1.1636889170350699</v>
       </c>
       <c r="K7" s="1">
-        <v>1.23265136160458</v>
+        <v>1.05101552136006</v>
       </c>
       <c r="L7" s="1">
-        <v>1.14984991683505</v>
+        <v>0.96591108128703695</v>
       </c>
       <c r="M7" s="1">
-        <v>1.03133994434722</v>
+        <v>1.05467336055639</v>
       </c>
       <c r="N7" s="1">
-        <v>1.08888138257045</v>
+        <v>1.0492565479128799</v>
       </c>
       <c r="O7" s="1">
-        <v>1.0642387735427901</v>
+        <v>0.95353821760415203</v>
       </c>
       <c r="P7" s="1">
-        <v>1.14610860286428</v>
+        <v>1.1579361630757501</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.13147582553552</v>
+        <v>1.01313971384505</v>
       </c>
       <c r="R7" s="1">
-        <v>1.1366019481090599</v>
+        <v>0.89113712066572803</v>
       </c>
       <c r="S7" s="1">
-        <v>1.17228954451737</v>
+        <v>1.06298158592945</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>1.3028606739101196</v>
+        <v>1.0969119033276367</v>
       </c>
       <c r="C8" s="1">
-        <v>1.91699176894138</v>
+        <v>1.1756300885588</v>
       </c>
       <c r="D8" s="1">
-        <v>1.1055693662047901</v>
+        <v>1.04774796876165</v>
       </c>
       <c r="E8" s="1">
-        <v>1.1443772070820799</v>
+        <v>1.0462227309437</v>
       </c>
       <c r="F8" s="1">
-        <v>1.79633881550768</v>
+        <v>0.94923084148970305</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0868065509839999</v>
+        <v>0.98584124477281898</v>
       </c>
       <c r="H8" s="1">
-        <v>3.01176082583097</v>
+        <v>1.0810955760419101</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1160193222783701</v>
+        <v>1.13909542333706</v>
       </c>
       <c r="J8" s="1">
-        <v>1.4610521589693899</v>
+        <v>1.07705275078152</v>
       </c>
       <c r="K8" s="1">
-        <v>1.1598576313523301</v>
+        <v>1.2772071499327899</v>
       </c>
       <c r="L8" s="1">
-        <v>1.0793976117331201</v>
+        <v>1.1775198704162999</v>
       </c>
       <c r="M8" s="1">
-        <v>0.92543682872454103</v>
+        <v>1.02104527705554</v>
       </c>
       <c r="N8" s="1">
-        <v>0.98481989848411899</v>
+        <v>1.0916373283290901</v>
       </c>
       <c r="O8" s="1">
-        <v>1.09950648149328</v>
+        <v>1.1075413313936899</v>
       </c>
       <c r="P8" s="1">
-        <v>1.0985056594742499</v>
+        <v>1.0713470657563799</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.98880097249025201</v>
+        <v>1.0982355058153399</v>
       </c>
       <c r="R8" s="1">
-        <v>1.02302759904968</v>
+        <v>1.1836162219525499</v>
       </c>
       <c r="S8" s="1">
-        <v>1.1503627578718001</v>
+        <v>1.11743598123098</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499261001600367</v>
+        <v>1.2987831039129147</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0115800888089801</v>
+        <v>3.4528123483788602</v>
       </c>
       <c r="D9" s="1">
-        <v>0.99050059930655299</v>
+        <v>1.0687549925918101</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0170788654192899</v>
+        <v>1.07931698501461</v>
       </c>
       <c r="F9" s="1">
-        <v>1.32537248811879</v>
+        <v>1.01681623925855</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0751238015031099</v>
+        <v>1.33995269684417</v>
       </c>
       <c r="H9" s="1">
-        <v>1.2382867740513499</v>
+        <v>1.3177921305356</v>
       </c>
       <c r="I9" s="1">
-        <v>1.05588159050321</v>
+        <v>1.0180775710601</v>
       </c>
       <c r="J9" s="1">
-        <v>0.886100331428753</v>
+        <v>1.6165911905566399</v>
       </c>
       <c r="K9" s="1">
-        <v>2.0095243489506802</v>
+        <v>1.4186663578638601</v>
       </c>
       <c r="L9" s="1">
-        <v>1.3239481944274001</v>
+        <v>1.1875736919063999</v>
       </c>
       <c r="M9" s="1">
-        <v>1.0493414817519899</v>
+        <v>0.93593584117191297</v>
       </c>
       <c r="N9" s="1">
-        <v>1.06137257618825</v>
+        <v>1.0072089486321101</v>
       </c>
       <c r="O9" s="1">
-        <v>1.0588968309215201</v>
+        <v>1.0687718210350401</v>
       </c>
       <c r="P9" s="1">
-        <v>1.25084157674263</v>
+        <v>1.0713574194519899</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.0824160370717799</v>
+        <v>1.0488197658708001</v>
       </c>
       <c r="R9" s="1">
-        <v>1.1090960022266101</v>
+        <v>1.1926614704937999</v>
       </c>
       <c r="S9" s="1">
-        <v>1.00338211529973</v>
+        <v>1.2382032958533</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0533510859411435</v>
+        <v>1.0402204500245151</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0951204445295999</v>
+        <v>0.94770804531467701</v>
       </c>
       <c r="D10" s="1">
-        <v>0.95786136427384505</v>
+        <v>1.01223820761004</v>
       </c>
       <c r="E10" s="1">
-        <v>1.01374973034344</v>
+        <v>0.99300063427145002</v>
       </c>
       <c r="F10" s="1">
-        <v>1.1424007145016899</v>
+        <v>0.82111860578552098</v>
       </c>
       <c r="G10" s="1">
-        <v>1.3014628332390701</v>
+        <v>1.10095568050564</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0397257634582</v>
+        <v>1.1305292851803099</v>
       </c>
       <c r="I10" s="1">
-        <v>0.966785437125942</v>
+        <v>0.97430730078695704</v>
       </c>
       <c r="J10" s="1">
-        <v>0.97526091375841395</v>
+        <v>0.90877722050443699</v>
       </c>
       <c r="K10" s="1">
-        <v>0.89548967924853196</v>
+        <v>1.09909293158113</v>
       </c>
       <c r="L10" s="1">
-        <v>1.46876255988613</v>
+        <v>1.2982671561241601</v>
       </c>
       <c r="M10" s="1">
-        <v>0.878329859107297</v>
+        <v>1.03349606885014</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0615135548930601</v>
+        <v>1.1179886382890301</v>
       </c>
       <c r="O10" s="1">
-        <v>0.93825114200692905</v>
+        <v>1.03206795750247</v>
       </c>
       <c r="P10" s="1">
-        <v>1.14394814315785</v>
+        <v>1.1190989967001801</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.98113252620963198</v>
+        <v>1.0142416916636301</v>
       </c>
       <c r="R10" s="1">
-        <v>1.02636122965777</v>
+        <v>1.1189884501995599</v>
       </c>
       <c r="S10" s="1">
-        <v>1.0208125656020399</v>
+        <v>0.96187077954743005</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0543602392020055</v>
+        <v>1.035289540955777</v>
       </c>
       <c r="C11" s="1">
-        <v>1.00100084809821</v>
+        <v>1.1231451777808901</v>
       </c>
       <c r="D11" s="1">
-        <v>1.11864134016491</v>
+        <v>0.99029458811053195</v>
       </c>
       <c r="E11" s="1">
-        <v>1.0930772814502401</v>
+        <v>1.02227309881157</v>
       </c>
       <c r="F11" s="1">
-        <v>1.1441945884623499</v>
+        <v>1.1626591265071899</v>
       </c>
       <c r="G11" s="1">
-        <v>0.97702955129121305</v>
+        <v>1.1033678165243801</v>
       </c>
       <c r="H11" s="1">
-        <v>1.1187829824148801</v>
+        <v>0.98197464176396299</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0238518445660001</v>
+        <v>1.0147780824210999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.93162169919541005</v>
+        <v>1.0204202176433299</v>
       </c>
       <c r="K11" s="1">
-        <v>1.00694384643139</v>
+        <v>0.90856752835329102</v>
       </c>
       <c r="L11" s="1">
-        <v>0.95831304150756902</v>
+        <v>1.08835547128905</v>
       </c>
       <c r="M11" s="1">
-        <v>1.03691902732414</v>
+        <v>1.00332131852039</v>
       </c>
       <c r="N11" s="1">
-        <v>1.16673475661902</v>
+        <v>1.05969896500352</v>
       </c>
       <c r="O11" s="1">
-        <v>1.08863872725471</v>
+        <v>1.01744223591636</v>
       </c>
       <c r="P11" s="1">
-        <v>1.1537465667353199</v>
+        <v>1.07648525989013</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.0220508755323601</v>
+        <v>1.00315399449793</v>
       </c>
       <c r="R11" s="1">
-        <v>1.02359388112871</v>
+        <v>1.0066782522234401</v>
       </c>
       <c r="S11" s="1">
-        <v>1.05898320825766</v>
+        <v>1.01730642099114</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>1.0181048898534688</v>
+        <v>1.0517087715489295</v>
       </c>
       <c r="C12" s="1">
-        <v>0.97884087975946399</v>
+        <v>1.0530777904356701</v>
       </c>
       <c r="D12" s="1">
-        <v>1.02708981673189</v>
+        <v>1.13790847780774</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0240325911143699</v>
+        <v>1.01868552673431</v>
       </c>
       <c r="F12" s="1">
-        <v>1.05492141377372</v>
+        <v>0.86435621377844496</v>
       </c>
       <c r="G12" s="1">
-        <v>0.96017429470210502</v>
+        <v>0.90356594758953901</v>
       </c>
       <c r="H12" s="1">
-        <v>1.03297491629292</v>
+        <v>1.06282882902598</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0220976917020399</v>
+        <v>1.1045773567114701</v>
       </c>
       <c r="J12" s="1">
-        <v>0.98356538003888705</v>
+        <v>0.94187626818675996</v>
       </c>
       <c r="K12" s="1">
-        <v>0.98437976367532298</v>
+        <v>1.01921811795829</v>
       </c>
       <c r="L12" s="1">
-        <v>1.0668382845509701</v>
+        <v>1.0987605633061499</v>
       </c>
       <c r="M12" s="1">
-        <v>0.98368380192911198</v>
+        <v>1.01908331792003</v>
       </c>
       <c r="N12" s="1">
-        <v>1.0506012532706701</v>
+        <v>1.3083494179862201</v>
       </c>
       <c r="O12" s="1">
-        <v>1.0470056053174099</v>
+        <v>1.0626738108004199</v>
       </c>
       <c r="P12" s="1">
-        <v>1.0358801617028499</v>
+        <v>1.13637897456215</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.02848682338191</v>
+        <v>1.02833719290361</v>
       </c>
       <c r="R12" s="1">
-        <v>1.00043423189046</v>
+        <v>1.03404535110205</v>
       </c>
       <c r="S12" s="1">
-        <v>1.02677621767487</v>
+        <v>1.0853259595229701</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>1.1039343375865289</v>
+        <v>1.0204649855890067</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0184872252821899</v>
+        <v>0.97908471332200597</v>
       </c>
       <c r="D13" s="1">
-        <v>1.2310276950475301</v>
+        <v>1.0353242009143999</v>
       </c>
       <c r="E13" s="1">
-        <v>1.06362299303651</v>
+        <v>0.99377596559895898</v>
       </c>
       <c r="F13" s="1">
-        <v>1.3251050637088599</v>
+        <v>0.99086464033573796</v>
       </c>
       <c r="G13" s="1">
-        <v>1.4135496118033899</v>
+        <v>0.92646431784546601</v>
       </c>
       <c r="H13" s="1">
-        <v>1.12307206758457</v>
+        <v>1.07093895792494</v>
       </c>
       <c r="I13" s="1">
-        <v>0.98556678500148498</v>
+        <v>1.00948599812378</v>
       </c>
       <c r="J13" s="1">
-        <v>1.0490827636612901</v>
+        <v>0.98931840382317404</v>
       </c>
       <c r="K13" s="1">
-        <v>1.04034700623472</v>
+        <v>1.0453089929795301</v>
       </c>
       <c r="L13" s="1">
-        <v>1.1237524879746901</v>
+        <v>1.02076475460586</v>
       </c>
       <c r="M13" s="1">
-        <v>1.05599752095953</v>
+        <v>1.01293044432283</v>
       </c>
       <c r="N13" s="1">
-        <v>1.0696783469408599</v>
+        <v>1.1616338039474901</v>
       </c>
       <c r="O13" s="1">
-        <v>1.00224944842833</v>
+        <v>1.03385405590868</v>
       </c>
       <c r="P13" s="1">
-        <v>1.1332849521194801</v>
+        <v>1.0471988707870901</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.0527608047992401</v>
+        <v>1.0030880818196499</v>
       </c>
       <c r="R13" s="1">
-        <v>1.0301928658402999</v>
+        <v>0.99356291116189299</v>
       </c>
       <c r="S13" s="1">
-        <v>1.04910610054802</v>
+        <v>1.0343056415916301</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>1.056398141071762</v>
+        <v>1.0575470527733151</v>
       </c>
       <c r="C14" s="1">
-        <v>1.04294346506701</v>
+        <v>0.95625281374188797</v>
       </c>
       <c r="D14" s="1">
-        <v>1.1402987397264901</v>
+        <v>1.1171755779899699</v>
       </c>
       <c r="E14" s="1">
-        <v>1.04710408636065</v>
+        <v>0.99020306567180805</v>
       </c>
       <c r="F14" s="1">
-        <v>1.1740429684659199</v>
+        <v>1.2296314321099</v>
       </c>
       <c r="G14" s="1">
-        <v>1.34346743187441</v>
+        <v>1.1084169058984601</v>
       </c>
       <c r="H14" s="1">
-        <v>1.0905871957189901</v>
+        <v>1.0455147638868301</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0500267076493901</v>
+        <v>1.0021590707261501</v>
       </c>
       <c r="J14" s="1">
-        <v>0.940355413044626</v>
+        <v>1.07951358498887</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0106620755536899</v>
+        <v>1.0244728021593099</v>
       </c>
       <c r="L14" s="1">
-        <v>0.911377122993835</v>
+        <v>1.05801862069047</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0215052794975801</v>
+        <v>1.0263427697718399</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0120222996031301</v>
+        <v>1.0573227924320501</v>
       </c>
       <c r="O14" s="1">
-        <v>0.99968583918416898</v>
+        <v>1.02454526952909</v>
       </c>
       <c r="P14" s="1">
-        <v>1.17317054842154</v>
+        <v>1.1497739498403301</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0599583510244801</v>
+        <v>1.0300259996908301</v>
       </c>
       <c r="R14" s="1">
-        <v>0.93633457003291698</v>
+        <v>1.03581313314996</v>
       </c>
       <c r="S14" s="1">
-        <v>1.00522630400113</v>
+        <v>1.0431173448686</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>1.1758932024842714</v>
+        <v>1.0296494251142523</v>
       </c>
       <c r="C15" s="1">
-        <v>1.1474941077084899</v>
+        <v>1.12179042946842</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0538273589664899</v>
+        <v>1.0705517744668001</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0729187917293199</v>
+        <v>0.93844856728175796</v>
       </c>
       <c r="F15" s="1">
-        <v>1.3988399019925</v>
+        <v>1.1394897350595301</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0378223458964599</v>
+        <v>1.1340451333927499</v>
       </c>
       <c r="H15" s="1">
-        <v>1.1312117048455701</v>
+        <v>1.1012522603706301</v>
       </c>
       <c r="I15" s="1">
-        <v>1.01651972805357</v>
+        <v>1.0305244566449101</v>
       </c>
       <c r="J15" s="1">
-        <v>1.3563607622063101</v>
+        <v>0.94015587714392501</v>
       </c>
       <c r="K15" s="1">
-        <v>1.52191086888869</v>
+        <v>1.1100338091358899</v>
       </c>
       <c r="L15" s="1">
-        <v>1.24097375341086</v>
+        <v>0.95596460175669995</v>
       </c>
       <c r="M15" s="1">
-        <v>1.00446352259472</v>
+        <v>1.03315854861464</v>
       </c>
       <c r="N15" s="1">
-        <v>0.98393463640100698</v>
+        <v>0.932423962134032</v>
       </c>
       <c r="O15" s="1">
-        <v>1.1901455553947</v>
+        <v>0.97485669288550503</v>
       </c>
       <c r="P15" s="1">
-        <v>1.22107634230388</v>
+        <v>1.06335159133172</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.2801406047517601</v>
+        <v>1.0378471990168601</v>
       </c>
       <c r="R15" s="1">
-        <v>1.1809252645861199</v>
+        <v>0.94453986380672905</v>
       </c>
       <c r="S15" s="1">
-        <v>1.1516191925021699</v>
+        <v>0.97560572443149096</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>1.0609264945265953</v>
+        <v>1.1071664140937063</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0503391827166999</v>
+        <v>1.1272218709227</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0293633698706499</v>
+        <v>1.0203198192602001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.99651378263841905</v>
+        <v>1.0159632192933401</v>
       </c>
       <c r="F16" s="1">
-        <v>0.99808363096820896</v>
+        <v>1.13824802841703</v>
       </c>
       <c r="G16" s="1">
-        <v>1.09737364473027</v>
+        <v>1.04202746479763</v>
       </c>
       <c r="H16" s="1">
-        <v>1.08760063136656</v>
+        <v>0.928975235733145</v>
       </c>
       <c r="I16" s="1">
-        <v>1.07372722572629</v>
+        <v>1.02230614584504</v>
       </c>
       <c r="J16" s="1">
-        <v>1.0243866596520801</v>
+        <v>1.20866093805692</v>
       </c>
       <c r="K16" s="1">
-        <v>1.0964914281204301</v>
+        <v>1.4770160690046501</v>
       </c>
       <c r="L16" s="1">
-        <v>1.05452207556997</v>
+        <v>1.19827698098977</v>
       </c>
       <c r="M16" s="1">
-        <v>1.0294737864874</v>
+        <v>0.98952544599135495</v>
       </c>
       <c r="N16" s="1">
-        <v>1.00339475753517</v>
+        <v>1.0137945324853901</v>
       </c>
       <c r="O16" s="1">
-        <v>1.0848755498604301</v>
+        <v>1.2374605553640501</v>
       </c>
       <c r="P16" s="1">
-        <v>1.0849496744830001</v>
+        <v>1.05384432231614</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.0590222325745899</v>
+        <v>1.08130735067078</v>
       </c>
       <c r="R16" s="1">
-        <v>1.1163295750941</v>
+        <v>1.18112472920891</v>
       </c>
       <c r="S16" s="1">
-        <v>1.14930319955785</v>
+        <v>1.0857563312359599</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>0.97643296434240501</v>
+        <v>1.5483103040176429</v>
       </c>
       <c r="C17" s="1">
-        <v>0.99158439132283205</v>
+        <v>1.74576738599861</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99554444557881205</v>
+        <v>1.3704217754691801</v>
       </c>
       <c r="E17" s="1">
-        <v>0.99456595560026095</v>
+        <v>1.74991073366631</v>
       </c>
       <c r="F17" s="1">
-        <v>0.92504002927278395</v>
+        <v>1.34523299700932</v>
       </c>
       <c r="G17" s="1">
-        <v>0.97677220681358901</v>
+        <v>1.2007477404188101</v>
       </c>
       <c r="H17" s="1">
-        <v>0.987791148146693</v>
+        <v>1.4575586899508599</v>
       </c>
       <c r="I17" s="1">
-        <v>0.99539174369709404</v>
+        <v>1.18768868546777</v>
       </c>
       <c r="J17" s="1">
-        <v>0.94202209187199204</v>
+        <v>1.7698126445557301</v>
       </c>
       <c r="K17" s="1">
-        <v>0.96974235482450299</v>
+        <v>2.04164178622998</v>
       </c>
       <c r="L17" s="1">
-        <v>0.93828549555266305</v>
+        <v>1.30598018232881</v>
       </c>
       <c r="M17" s="1">
-        <v>0.96063656486101501</v>
+        <v>1.7523205336938299</v>
       </c>
       <c r="N17" s="1">
-        <v>0.97411340220888898</v>
+        <v>1.3829361938464699</v>
       </c>
       <c r="O17" s="1">
-        <v>0.96552563048290696</v>
+        <v>1.84337384500959</v>
       </c>
       <c r="P17" s="1">
-        <v>1.01854287386439</v>
+        <v>1.4044599352595899</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.0063619873134899</v>
+        <v>1.3451215929104401</v>
       </c>
       <c r="R17" s="1">
-        <v>1.00171155169578</v>
+        <v>1.8780287205736099</v>
       </c>
       <c r="S17" s="1">
-        <v>0.95572852071318903</v>
+        <v>1.5402717259110199</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>0.95915660129530522</v>
+        <v>0.92222044678308845</v>
       </c>
       <c r="C18" s="1">
-        <v>0.964207611572103</v>
+        <v>0.88400900982425401</v>
       </c>
       <c r="D18" s="1">
-        <v>0.98552831945706898</v>
+        <v>0.98927471658227695</v>
       </c>
       <c r="E18" s="1">
-        <v>0.95171928341006096</v>
+        <v>0.86448446510056198</v>
       </c>
       <c r="F18" s="1">
-        <v>0.89898837945020804</v>
+        <v>0.99910668677570103</v>
       </c>
       <c r="G18" s="1">
-        <v>0.95774403359667204</v>
+        <v>0.95001332361362001</v>
       </c>
       <c r="H18" s="1">
-        <v>1.0018630206266099</v>
+        <v>0.77933731360648895</v>
       </c>
       <c r="I18" s="1">
-        <v>0.96889333258349497</v>
+        <v>0.89081411598290805</v>
       </c>
       <c r="J18" s="1">
-        <v>0.91743480862618798</v>
+        <v>0.89650570697394505</v>
       </c>
       <c r="K18" s="1">
-        <v>0.92335022357197405</v>
+        <v>1.02003369131398</v>
       </c>
       <c r="L18" s="1">
-        <v>0.93497820271699505</v>
+        <v>1.1157519784023699</v>
       </c>
       <c r="M18" s="1">
-        <v>0.91325806851342695</v>
+        <v>0.79354142413965401</v>
       </c>
       <c r="N18" s="1">
-        <v>0.98164134874824305</v>
+        <v>0.86348356170749396</v>
       </c>
       <c r="O18" s="1">
-        <v>0.94810712516412399</v>
+        <v>0.93443511577649396</v>
       </c>
       <c r="P18" s="1">
-        <v>1.0216679809181799</v>
+        <v>0.97657032430504798</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.99655954132506797</v>
+        <v>0.884403899972107</v>
       </c>
       <c r="R18" s="1">
-        <v>0.99932694942589395</v>
+        <v>0.93592747721442204</v>
       </c>
       <c r="S18" s="1">
-        <v>0.94039399231387799</v>
+        <v>0.900054784021177</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>0.96287812746388701</v>
+        <v>0.99061880040091899</v>
       </c>
       <c r="C19" s="1">
-        <v>0.95509562883969001</v>
+        <v>1.06957016335647</v>
       </c>
       <c r="D19" s="1">
-        <v>0.96734467568877203</v>
+        <v>0.996615737634028</v>
       </c>
       <c r="E19" s="1">
-        <v>0.95367206538698701</v>
+        <v>0.98522713062303702</v>
       </c>
       <c r="F19" s="1">
-        <v>0.98915369402790698</v>
+        <v>0.91861796083584202</v>
       </c>
       <c r="G19" s="1">
-        <v>0.97759798246651097</v>
+        <v>0.95613922557108699</v>
       </c>
       <c r="H19" s="1">
-        <v>0.928591634875919</v>
+        <v>1.0038601399779701</v>
       </c>
       <c r="I19" s="1">
-        <v>0.93642788301894597</v>
+        <v>1.0517143379734499</v>
       </c>
       <c r="J19" s="1">
-        <v>0.92889215338752096</v>
+        <v>0.96392000762025098</v>
       </c>
       <c r="K19" s="1">
-        <v>0.96299680908151997</v>
+        <v>0.93952501099487595</v>
       </c>
       <c r="L19" s="1">
-        <v>0.99528984181795899</v>
+        <v>1.00329822924261</v>
       </c>
       <c r="M19" s="1">
-        <v>0.912307111931974</v>
+        <v>0.97161533014758505</v>
       </c>
       <c r="N19" s="1">
-        <v>0.95847859395949098</v>
+        <v>1.00727568600783</v>
       </c>
       <c r="O19" s="1">
-        <v>0.95015922826076304</v>
+        <v>0.99547394681776002</v>
       </c>
       <c r="P19" s="1">
-        <v>1.0293331909965999</v>
+        <v>1.0209603093939199</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.988733903639474</v>
+        <v>1.0018375283412</v>
       </c>
       <c r="R19" s="1">
-        <v>0.99793933278481595</v>
+        <v>0.99958955290172902</v>
       </c>
       <c r="S19" s="1">
-        <v>0.93691443672123298</v>
+        <v>0.95527930937597805</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>0.99232961200620862</v>
+        <v>0.99335082849067791</v>
       </c>
       <c r="C20" s="1">
-        <v>0.97696686441204394</v>
+        <v>0.97875519546011203</v>
       </c>
       <c r="D20" s="1">
-        <v>1.09476605196753</v>
+        <v>1.0104169831324401</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0179086508367201</v>
+        <v>1.00348204715178</v>
       </c>
       <c r="F20" s="1">
-        <v>1.07141413499106</v>
+        <v>0.91958387102100603</v>
       </c>
       <c r="G20" s="1">
-        <v>0.97032516580369599</v>
+        <v>0.96901785580634103</v>
       </c>
       <c r="H20" s="1">
-        <v>0.92505449313166199</v>
+        <v>1.0008853071393999</v>
       </c>
       <c r="I20" s="1">
-        <v>0.97498986198547399</v>
+        <v>1.0152664407360099</v>
       </c>
       <c r="J20" s="1">
-        <v>0.91844478858805401</v>
+        <v>0.98673527094665403</v>
       </c>
       <c r="K20" s="1">
-        <v>1.0067490352021999</v>
+        <v>0.98640078901385897</v>
       </c>
       <c r="L20" s="1">
-        <v>1.1390145679421</v>
+        <v>1.00018571125901</v>
       </c>
       <c r="M20" s="1">
-        <v>0.914063725573666</v>
+        <v>0.99503850374164404</v>
       </c>
       <c r="N20" s="1">
-        <v>0.95943452142589603</v>
+        <v>1.0047730423975101</v>
       </c>
       <c r="O20" s="1">
-        <v>0.97093642882928499</v>
+        <v>1.0055513313876301</v>
       </c>
       <c r="P20" s="1">
-        <v>1.0923763720636499</v>
+        <v>1.0127382747398901</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.92510357255377895</v>
+        <v>1.00775292514682</v>
       </c>
       <c r="R20" s="1">
-        <v>0.99523057503283296</v>
+        <v>1.0006117496164799</v>
       </c>
       <c r="S20" s="1">
-        <v>0.91682459376589798</v>
+        <v>0.98976878564493898</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0474517105657881</v>
+        <v>0.98617697059210485</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0370367014866599</v>
+        <v>0.96992088744331095</v>
       </c>
       <c r="D21" s="1">
-        <v>1.02977816057062</v>
+        <v>1.0050206018718599</v>
       </c>
       <c r="E21" s="1">
-        <v>0.97681859506320801</v>
+        <v>0.985044534250893</v>
       </c>
       <c r="F21" s="1">
-        <v>0.97527874473356901</v>
+        <v>0.91714805065723104</v>
       </c>
       <c r="G21" s="1">
-        <v>1.1027826750198999</v>
+        <v>0.95811555651727898</v>
       </c>
       <c r="H21" s="1">
-        <v>1.0837834581236701</v>
+        <v>0.99409433684013304</v>
       </c>
       <c r="I21" s="1">
-        <v>1.04974088332105</v>
+        <v>1.0410333834935701</v>
       </c>
       <c r="J21" s="1">
-        <v>1.00638647011889</v>
+        <v>0.97557761614128402</v>
       </c>
       <c r="K21" s="1">
-        <v>1.07535730810922</v>
+        <v>0.94366588773554105</v>
       </c>
       <c r="L21" s="1">
-        <v>1.04409148968495</v>
+        <v>1.0006321202375299</v>
       </c>
       <c r="M21" s="1">
-        <v>1.02059319985662</v>
+        <v>0.97583839803337102</v>
       </c>
       <c r="N21" s="1">
-        <v>1.0017934946243501</v>
+        <v>1.00262582533414</v>
       </c>
       <c r="O21" s="1">
-        <v>1.0840454073524399</v>
+        <v>0.992635779195993</v>
       </c>
       <c r="P21" s="1">
-        <v>1.0892951974485701</v>
+        <v>1.02754267916963</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.0537266156320899</v>
+        <v>1.0074243626814701</v>
       </c>
       <c r="R21" s="1">
-        <v>1.06260048708848</v>
+        <v>1.00992227260348</v>
       </c>
       <c r="S21" s="1">
-        <v>1.1135701913841101</v>
+        <v>0.95876620785906597</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>0.97835354129286667</v>
+        <v>0.99684761276853251</v>
       </c>
       <c r="C22" s="1">
-        <v>0.98026321485861101</v>
+        <v>1.01424085693258</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0003536635694199</v>
+        <v>1.00238071734287</v>
       </c>
       <c r="E22" s="1">
-        <v>0.98862939028335195</v>
+        <v>0.98976053854313195</v>
       </c>
       <c r="F22" s="1">
-        <v>0.92406114653043703</v>
+        <v>0.98160572720222705</v>
       </c>
       <c r="G22" s="1">
-        <v>0.97938912327247196</v>
+        <v>0.96968430015173701</v>
       </c>
       <c r="H22" s="1">
-        <v>0.997200616229583</v>
+        <v>0.98814996071454697</v>
       </c>
       <c r="I22" s="1">
-        <v>0.99253153730337895</v>
+        <v>1.06035211874979</v>
       </c>
       <c r="J22" s="1">
-        <v>0.95115600230195096</v>
+        <v>0.97401708925242403</v>
       </c>
       <c r="K22" s="1">
-        <v>0.96812406719698996</v>
+        <v>0.96821044335564399</v>
       </c>
       <c r="L22" s="1">
-        <v>0.946867096476253</v>
+        <v>1.04750519215311</v>
       </c>
       <c r="M22" s="1">
-        <v>0.95837617649893503</v>
+        <v>0.96654425988514103</v>
       </c>
       <c r="N22" s="1">
-        <v>0.987645243705491</v>
+        <v>0.98637809660819598</v>
       </c>
       <c r="O22" s="1">
-        <v>0.97306604242970296</v>
+        <v>1.0036542509967099</v>
       </c>
       <c r="P22" s="1">
-        <v>1.0199627200071599</v>
+        <v>1.03023383252339</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.00317409114942</v>
+        <v>1.0065716387802</v>
       </c>
       <c r="R22" s="1">
-        <v>0.99708949234663302</v>
+        <v>1.00650685812068</v>
       </c>
       <c r="S22" s="1">
-        <v>0.964120577818942</v>
+        <v>0.95061353575267205</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>0.95757729746657838</v>
+        <v>1.0301816628264699</v>
       </c>
       <c r="C23" s="1">
-        <v>0.96111885550695098</v>
+        <v>1.03731128273884</v>
       </c>
       <c r="D23" s="1">
-        <v>0.98491130009391104</v>
+        <v>1.0715404466718901</v>
       </c>
       <c r="E23" s="1">
-        <v>0.93482809380694998</v>
+        <v>1.01671211836175</v>
       </c>
       <c r="F23" s="1">
-        <v>0.89573726550444099</v>
+        <v>0.98352611727357098</v>
       </c>
       <c r="G23" s="1">
-        <v>0.973976319626353</v>
+        <v>0.99731199668882597</v>
       </c>
       <c r="H23" s="1">
-        <v>1.0131343549123699</v>
+        <v>0.99720628855384197</v>
       </c>
       <c r="I23" s="1">
-        <v>0.96318169450916802</v>
+        <v>1.1197541579782799</v>
       </c>
       <c r="J23" s="1">
-        <v>0.917329859520156</v>
+        <v>0.97086869317787505</v>
       </c>
       <c r="K23" s="1">
-        <v>0.92096277857895703</v>
+        <v>1.0240049126392901</v>
       </c>
       <c r="L23" s="1">
-        <v>0.94334680765066703</v>
+        <v>1.1823969680770099</v>
       </c>
       <c r="M23" s="1">
-        <v>0.91391138074651901</v>
+        <v>0.93764661120687498</v>
       </c>
       <c r="N23" s="1">
-        <v>0.98115852791724401</v>
+        <v>1.02030284721136</v>
       </c>
       <c r="O23" s="1">
-        <v>0.94674400919106705</v>
+        <v>1.0237359840703499</v>
       </c>
       <c r="P23" s="1">
-        <v>1.02476952337647</v>
+        <v>1.0604337382115301</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.99515339436069405</v>
+        <v>1.0658939956618201</v>
       </c>
       <c r="R23" s="1">
-        <v>0.97201517422417205</v>
+        <v>1.0602126691239599</v>
       </c>
       <c r="S23" s="1">
-        <v>0.93653471740574401</v>
+        <v>0.94422944040291601</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1870,58 +1879,58 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>0.96196607117345578</v>
+        <v>0.97963633936343586</v>
       </c>
       <c r="C24" s="1">
-        <v>0.95619953584407102</v>
+        <v>1.0227099214381801</v>
       </c>
       <c r="D24" s="1">
-        <v>0.98338119426076998</v>
+        <v>0.93639283255005801</v>
       </c>
       <c r="E24" s="1">
-        <v>0.938218561919131</v>
+        <v>0.96959071695510501</v>
       </c>
       <c r="F24" s="1">
-        <v>0.96814869743805598</v>
+        <v>0.96685904370065701</v>
       </c>
       <c r="G24" s="1">
-        <v>0.99339942782167401</v>
+        <v>0.97039625946655095</v>
       </c>
       <c r="H24" s="1">
-        <v>0.94014264272326398</v>
+        <v>0.99278666774593805</v>
       </c>
       <c r="I24" s="1">
-        <v>0.93780032049095596</v>
+        <v>1.0512854988835001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.92022713209009799</v>
+        <v>0.98126525726855796</v>
       </c>
       <c r="K24" s="1">
-        <v>0.95939751106417004</v>
+        <v>0.92256453397096405</v>
       </c>
       <c r="L24" s="1">
-        <v>0.98575114654241902</v>
+        <v>0.97777728479167203</v>
       </c>
       <c r="M24" s="1">
-        <v>0.92243502415730305</v>
+        <v>0.97385518470514498</v>
       </c>
       <c r="N24" s="1">
-        <v>0.96158328321922903</v>
+        <v>1.0034663146048499</v>
       </c>
       <c r="O24" s="1">
-        <v>0.95676146318038202</v>
+        <v>0.953056642125514</v>
       </c>
       <c r="P24" s="1">
-        <v>1.04542072959356</v>
+        <v>1.0420120677588001</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.98250228766796499</v>
+        <v>0.99223110622890798</v>
       </c>
       <c r="R24" s="1">
-        <v>0.96759928253360605</v>
+        <v>0.95933937039623596</v>
       </c>
       <c r="S24" s="1">
-        <v>0.93445496940209605</v>
+        <v>0.93822906658777105</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,906 +1939,238 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>1.0025809506705219</v>
+        <v>0.99301623858957322</v>
       </c>
       <c r="C25" s="1">
-        <v>0.98559128732409595</v>
+        <v>0.96383222073988295</v>
       </c>
       <c r="D25" s="1">
-        <v>1.1857878600208001</v>
+        <v>1.00032272840508</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0076960531227599</v>
+        <v>1.0005344164515899</v>
       </c>
       <c r="F25" s="1">
-        <v>1.0546882054901101</v>
+        <v>0.96983556451895103</v>
       </c>
       <c r="G25" s="1">
-        <v>0.97032516580369599</v>
+        <v>0.99118168126360295</v>
       </c>
       <c r="H25" s="1">
-        <v>0.93732114325701099</v>
+        <v>0.99804484174507102</v>
       </c>
       <c r="I25" s="1">
-        <v>0.983148252776332</v>
+        <v>1.0190506950878899</v>
       </c>
       <c r="J25" s="1">
-        <v>0.91738781618813403</v>
+        <v>0.98865219522051995</v>
       </c>
       <c r="K25" s="1">
-        <v>1.0199999023524899</v>
+        <v>0.96982932320660398</v>
       </c>
       <c r="L25" s="1">
-        <v>1.13758298045465</v>
+        <v>0.98895300891378601</v>
       </c>
       <c r="M25" s="1">
-        <v>0.90683280337796501</v>
+        <v>0.99275950429485205</v>
       </c>
       <c r="N25" s="1">
-        <v>0.95943452142589603</v>
+        <v>1.00490381022199</v>
       </c>
       <c r="O25" s="1">
-        <v>0.99065550409853198</v>
+        <v>1.0017307605408901</v>
       </c>
       <c r="P25" s="1">
-        <v>1.12436723725476</v>
+        <v>1.01326679647299</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.91910923701749203</v>
+        <v>1.0091458443891399</v>
       </c>
       <c r="R25" s="1">
-        <v>1.0015721139100999</v>
+        <v>0.99874278350052803</v>
       </c>
       <c r="S25" s="1">
-        <v>0.94237607752404895</v>
+        <v>0.97048988104937794</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97567790673421184</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.941824824567568</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.950226311903411</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.97115328177013505</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.96937165578247997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.97433437486627905</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.98371007046632997</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.0453748195532899</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.98645882094112203</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.92177328603897801</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.97524709514315899</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.97223492584681204</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.0008239321449099</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.95665833603663497</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.0229756451259699</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.99593936391253002</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.97402588229331299</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.94439178808868096</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98392771679840718</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.97545118147865695</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.89755160276602797</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.96679631670446298</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.0104934629701099</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.97881866007724405</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.98095067759128696</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0677051008891401</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.99048822742110199</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.94600067901733298</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.0150950836619801</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.97435159769939905</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.98939254929820497</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.95777942524801296</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.0802777199321001</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.98459986553914502</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.97042143863881702</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.94059759663989795</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0301560906146277</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.98567654283678796</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.93635590138885105</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.97675647707873603</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.98801545162022197</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.99731199668882597</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.98625811954422804</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.2497322418999599</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.0184912171634799</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.02397950878155</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.16114977791382</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.98493074831559402</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.02366351623311</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.98040934392588797</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1.1937531849812399</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.01771575105351</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.0561188381637601</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.93233492285910502</v>
       </c>
     </row>
   </sheetData>

--- a/results/table3_results.xlsx
+++ b/results/table3_results.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/table3_results.xlsx
+++ b/results/table3_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>NYM</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Price-Income</t>
   </si>
   <si>
-    <t>At-risk</t>
-  </si>
-  <si>
     <t>APR</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Potential Buyers</t>
   </si>
   <si>
-    <t>At-Risk to PB</t>
-  </si>
-  <si>
     <t>N1: Lagged Return</t>
   </si>
   <si>
@@ -162,6 +156,9 @@
   </si>
   <si>
     <t>CM5: C(K,PB)</t>
+  </si>
+  <si>
+    <t>Negative Equity</t>
   </si>
 </sst>
 </file>
@@ -483,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B28" si="0">AVERAGE(C3:S3)</f>
+        <f t="shared" ref="B3:B27" si="0">AVERAGE(C3:S3)</f>
         <v>1.0825336091922946</v>
       </c>
       <c r="C3" s="1">
@@ -735,67 +732,67 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1661418669706272</v>
+        <v>1.042178450637012</v>
       </c>
       <c r="C5" s="1">
-        <v>1.05990809257027</v>
+        <v>1.1225335868214901</v>
       </c>
       <c r="D5" s="1">
-        <v>1.334485941519</v>
+        <v>0.98859670362829399</v>
       </c>
       <c r="E5" s="1">
-        <v>1.1487197895591901</v>
+        <v>0.86156758768518105</v>
       </c>
       <c r="F5" s="1">
-        <v>1.27087781534438</v>
+        <v>1.0282450104079299</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0099916232655699</v>
+        <v>0.96849575060732596</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0261610986435801</v>
+        <v>0.90692081473872299</v>
       </c>
       <c r="I5" s="1">
-        <v>1.3165876125289</v>
+        <v>0.99954127781004798</v>
       </c>
       <c r="J5" s="1">
-        <v>1.15562657757096</v>
+        <v>1.2033549432541999</v>
       </c>
       <c r="K5" s="1">
-        <v>1.09447049313978</v>
+        <v>1.12872831093521</v>
       </c>
       <c r="L5" s="1">
-        <v>1.07647250044219</v>
+        <v>1.23934477052389</v>
       </c>
       <c r="M5" s="1">
-        <v>1.17359593200384</v>
+        <v>1.0061307061276299</v>
       </c>
       <c r="N5" s="1">
-        <v>1.0398791067834401</v>
+        <v>0.99386988380320396</v>
       </c>
       <c r="O5" s="1">
-        <v>1.18360633942083</v>
+        <v>1.0102976778186199</v>
       </c>
       <c r="P5" s="1">
-        <v>1.8072715906807999</v>
+        <v>1.1382863898803599</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.21453564184524</v>
+        <v>0.98013240166464999</v>
       </c>
       <c r="R5" s="1">
-        <v>0.93787421019483297</v>
+        <v>1.0884153039236</v>
       </c>
       <c r="S5" s="1">
-        <v>0.97434737298785301</v>
+        <v>1.05257254119885</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -855,62 +852,62 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>1.0066497328145783</v>
+        <v>1.0969119033276367</v>
       </c>
       <c r="C7" s="1">
-        <v>0.75218647169587904</v>
+        <v>1.1756300885588</v>
       </c>
       <c r="D7" s="1">
-        <v>0.72875757979389899</v>
+        <v>1.04774796876165</v>
       </c>
       <c r="E7" s="1">
-        <v>0.98495777573264198</v>
+        <v>1.0462227309437</v>
       </c>
       <c r="F7" s="1">
-        <v>1.3032997361913501</v>
+        <v>0.94923084148970305</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0130081833989599</v>
+        <v>0.98584124477281898</v>
       </c>
       <c r="H7" s="1">
-        <v>0.98743994967892701</v>
+        <v>1.0810955760419101</v>
       </c>
       <c r="I7" s="1">
-        <v>0.98011753208460795</v>
+        <v>1.13909542333706</v>
       </c>
       <c r="J7" s="1">
-        <v>1.1636889170350699</v>
+        <v>1.07705275078152</v>
       </c>
       <c r="K7" s="1">
-        <v>1.05101552136006</v>
+        <v>1.2772071499327899</v>
       </c>
       <c r="L7" s="1">
-        <v>0.96591108128703695</v>
+        <v>1.1775198704162999</v>
       </c>
       <c r="M7" s="1">
-        <v>1.05467336055639</v>
+        <v>1.02104527705554</v>
       </c>
       <c r="N7" s="1">
-        <v>1.0492565479128799</v>
+        <v>1.0916373283290901</v>
       </c>
       <c r="O7" s="1">
-        <v>0.95353821760415203</v>
+        <v>1.1075413313936899</v>
       </c>
       <c r="P7" s="1">
-        <v>1.1579361630757501</v>
+        <v>1.0713470657563799</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.01313971384505</v>
+        <v>1.0982355058153399</v>
       </c>
       <c r="R7" s="1">
-        <v>0.89113712066572803</v>
+        <v>1.1836162219525499</v>
       </c>
       <c r="S7" s="1">
-        <v>1.06298158592945</v>
+        <v>1.11743598123098</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -919,58 +916,58 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>1.0969119033276367</v>
+        <v>1.2987831039129147</v>
       </c>
       <c r="C8" s="1">
-        <v>1.1756300885588</v>
+        <v>3.4528123483788602</v>
       </c>
       <c r="D8" s="1">
-        <v>1.04774796876165</v>
+        <v>1.0687549925918101</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0462227309437</v>
+        <v>1.07931698501461</v>
       </c>
       <c r="F8" s="1">
-        <v>0.94923084148970305</v>
+        <v>1.01681623925855</v>
       </c>
       <c r="G8" s="1">
-        <v>0.98584124477281898</v>
+        <v>1.33995269684417</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0810955760419101</v>
+        <v>1.3177921305356</v>
       </c>
       <c r="I8" s="1">
-        <v>1.13909542333706</v>
+        <v>1.0180775710601</v>
       </c>
       <c r="J8" s="1">
-        <v>1.07705275078152</v>
+        <v>1.6165911905566399</v>
       </c>
       <c r="K8" s="1">
-        <v>1.2772071499327899</v>
+        <v>1.4186663578638601</v>
       </c>
       <c r="L8" s="1">
-        <v>1.1775198704162999</v>
+        <v>1.1875736919063999</v>
       </c>
       <c r="M8" s="1">
-        <v>1.02104527705554</v>
+        <v>0.93593584117191297</v>
       </c>
       <c r="N8" s="1">
-        <v>1.0916373283290901</v>
+        <v>1.0072089486321101</v>
       </c>
       <c r="O8" s="1">
-        <v>1.1075413313936899</v>
+        <v>1.0687718210350401</v>
       </c>
       <c r="P8" s="1">
-        <v>1.0713470657563799</v>
+        <v>1.0713574194519899</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.0982355058153399</v>
+        <v>1.0488197658708001</v>
       </c>
       <c r="R8" s="1">
-        <v>1.1836162219525499</v>
+        <v>1.1926614704937999</v>
       </c>
       <c r="S8" s="1">
-        <v>1.11743598123098</v>
+        <v>1.2382032958533</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -979,58 +976,58 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>1.2987831039129147</v>
+        <v>1.0402204500245151</v>
       </c>
       <c r="C9" s="1">
-        <v>3.4528123483788602</v>
+        <v>0.94770804531467701</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0687549925918101</v>
+        <v>1.01223820761004</v>
       </c>
       <c r="E9" s="1">
-        <v>1.07931698501461</v>
+        <v>0.99300063427145002</v>
       </c>
       <c r="F9" s="1">
-        <v>1.01681623925855</v>
+        <v>0.82111860578552098</v>
       </c>
       <c r="G9" s="1">
-        <v>1.33995269684417</v>
+        <v>1.10095568050564</v>
       </c>
       <c r="H9" s="1">
-        <v>1.3177921305356</v>
+        <v>1.1305292851803099</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0180775710601</v>
+        <v>0.97430730078695704</v>
       </c>
       <c r="J9" s="1">
-        <v>1.6165911905566399</v>
+        <v>0.90877722050443699</v>
       </c>
       <c r="K9" s="1">
-        <v>1.4186663578638601</v>
+        <v>1.09909293158113</v>
       </c>
       <c r="L9" s="1">
-        <v>1.1875736919063999</v>
+        <v>1.2982671561241601</v>
       </c>
       <c r="M9" s="1">
-        <v>0.93593584117191297</v>
+        <v>1.03349606885014</v>
       </c>
       <c r="N9" s="1">
-        <v>1.0072089486321101</v>
+        <v>1.1179886382890301</v>
       </c>
       <c r="O9" s="1">
-        <v>1.0687718210350401</v>
+        <v>1.03206795750247</v>
       </c>
       <c r="P9" s="1">
-        <v>1.0713574194519899</v>
+        <v>1.1190989967001801</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.0488197658708001</v>
+        <v>1.0142416916636301</v>
       </c>
       <c r="R9" s="1">
-        <v>1.1926614704937999</v>
+        <v>1.1189884501995599</v>
       </c>
       <c r="S9" s="1">
-        <v>1.2382032958533</v>
+        <v>0.96187077954743005</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1039,58 +1036,58 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0402204500245151</v>
+        <v>1.035289540955777</v>
       </c>
       <c r="C10" s="1">
-        <v>0.94770804531467701</v>
+        <v>1.1231451777808901</v>
       </c>
       <c r="D10" s="1">
-        <v>1.01223820761004</v>
+        <v>0.99029458811053195</v>
       </c>
       <c r="E10" s="1">
-        <v>0.99300063427145002</v>
+        <v>1.02227309881157</v>
       </c>
       <c r="F10" s="1">
-        <v>0.82111860578552098</v>
+        <v>1.1626591265071899</v>
       </c>
       <c r="G10" s="1">
-        <v>1.10095568050564</v>
+        <v>1.1033678165243801</v>
       </c>
       <c r="H10" s="1">
-        <v>1.1305292851803099</v>
+        <v>0.98197464176396299</v>
       </c>
       <c r="I10" s="1">
-        <v>0.97430730078695704</v>
+        <v>1.0147780824210999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.90877722050443699</v>
+        <v>1.0204202176433299</v>
       </c>
       <c r="K10" s="1">
-        <v>1.09909293158113</v>
+        <v>0.90856752835329102</v>
       </c>
       <c r="L10" s="1">
-        <v>1.2982671561241601</v>
+        <v>1.08835547128905</v>
       </c>
       <c r="M10" s="1">
-        <v>1.03349606885014</v>
+        <v>1.00332131852039</v>
       </c>
       <c r="N10" s="1">
-        <v>1.1179886382890301</v>
+        <v>1.05969896500352</v>
       </c>
       <c r="O10" s="1">
-        <v>1.03206795750247</v>
+        <v>1.01744223591636</v>
       </c>
       <c r="P10" s="1">
-        <v>1.1190989967001801</v>
+        <v>1.07648525989013</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.0142416916636301</v>
+        <v>1.00315399449793</v>
       </c>
       <c r="R10" s="1">
-        <v>1.1189884501995599</v>
+        <v>1.0066782522234401</v>
       </c>
       <c r="S10" s="1">
-        <v>0.96187077954743005</v>
+        <v>1.01730642099114</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1099,58 +1096,58 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>1.035289540955777</v>
+        <v>1.0517087715489295</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1231451777808901</v>
+        <v>1.0530777904356701</v>
       </c>
       <c r="D11" s="1">
-        <v>0.99029458811053195</v>
+        <v>1.13790847780774</v>
       </c>
       <c r="E11" s="1">
-        <v>1.02227309881157</v>
+        <v>1.01868552673431</v>
       </c>
       <c r="F11" s="1">
-        <v>1.1626591265071899</v>
+        <v>0.86435621377844496</v>
       </c>
       <c r="G11" s="1">
-        <v>1.1033678165243801</v>
+        <v>0.90356594758953901</v>
       </c>
       <c r="H11" s="1">
-        <v>0.98197464176396299</v>
+        <v>1.06282882902598</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0147780824210999</v>
+        <v>1.1045773567114701</v>
       </c>
       <c r="J11" s="1">
-        <v>1.0204202176433299</v>
+        <v>0.94187626818675996</v>
       </c>
       <c r="K11" s="1">
-        <v>0.90856752835329102</v>
+        <v>1.01921811795829</v>
       </c>
       <c r="L11" s="1">
-        <v>1.08835547128905</v>
+        <v>1.0987605633061499</v>
       </c>
       <c r="M11" s="1">
-        <v>1.00332131852039</v>
+        <v>1.01908331792003</v>
       </c>
       <c r="N11" s="1">
-        <v>1.05969896500352</v>
+        <v>1.3083494179862201</v>
       </c>
       <c r="O11" s="1">
-        <v>1.01744223591636</v>
+        <v>1.0626738108004199</v>
       </c>
       <c r="P11" s="1">
-        <v>1.07648525989013</v>
+        <v>1.13637897456215</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.00315399449793</v>
+        <v>1.02833719290361</v>
       </c>
       <c r="R11" s="1">
-        <v>1.0066782522234401</v>
+        <v>1.03404535110205</v>
       </c>
       <c r="S11" s="1">
-        <v>1.01730642099114</v>
+        <v>1.0853259595229701</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1159,58 +1156,58 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>1.0517087715489295</v>
+        <v>1.0204649855890067</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0530777904356701</v>
+        <v>0.97908471332200597</v>
       </c>
       <c r="D12" s="1">
-        <v>1.13790847780774</v>
+        <v>1.0353242009143999</v>
       </c>
       <c r="E12" s="1">
-        <v>1.01868552673431</v>
+        <v>0.99377596559895898</v>
       </c>
       <c r="F12" s="1">
-        <v>0.86435621377844496</v>
+        <v>0.99086464033573796</v>
       </c>
       <c r="G12" s="1">
-        <v>0.90356594758953901</v>
+        <v>0.92646431784546601</v>
       </c>
       <c r="H12" s="1">
-        <v>1.06282882902598</v>
+        <v>1.07093895792494</v>
       </c>
       <c r="I12" s="1">
-        <v>1.1045773567114701</v>
+        <v>1.00948599812378</v>
       </c>
       <c r="J12" s="1">
-        <v>0.94187626818675996</v>
+        <v>0.98931840382317404</v>
       </c>
       <c r="K12" s="1">
-        <v>1.01921811795829</v>
+        <v>1.0453089929795301</v>
       </c>
       <c r="L12" s="1">
-        <v>1.0987605633061499</v>
+        <v>1.02076475460586</v>
       </c>
       <c r="M12" s="1">
-        <v>1.01908331792003</v>
+        <v>1.01293044432283</v>
       </c>
       <c r="N12" s="1">
-        <v>1.3083494179862201</v>
+        <v>1.1616338039474901</v>
       </c>
       <c r="O12" s="1">
-        <v>1.0626738108004199</v>
+        <v>1.03385405590868</v>
       </c>
       <c r="P12" s="1">
-        <v>1.13637897456215</v>
+        <v>1.0471988707870901</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.02833719290361</v>
+        <v>1.0030880818196499</v>
       </c>
       <c r="R12" s="1">
-        <v>1.03404535110205</v>
+        <v>0.99356291116189299</v>
       </c>
       <c r="S12" s="1">
-        <v>1.0853259595229701</v>
+        <v>1.0343056415916301</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1219,58 +1216,58 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0204649855890067</v>
+        <v>1.0575470527733151</v>
       </c>
       <c r="C13" s="1">
-        <v>0.97908471332200597</v>
+        <v>0.95625281374188797</v>
       </c>
       <c r="D13" s="1">
-        <v>1.0353242009143999</v>
+        <v>1.1171755779899699</v>
       </c>
       <c r="E13" s="1">
-        <v>0.99377596559895898</v>
+        <v>0.99020306567180805</v>
       </c>
       <c r="F13" s="1">
-        <v>0.99086464033573796</v>
+        <v>1.2296314321099</v>
       </c>
       <c r="G13" s="1">
-        <v>0.92646431784546601</v>
+        <v>1.1084169058984601</v>
       </c>
       <c r="H13" s="1">
-        <v>1.07093895792494</v>
+        <v>1.0455147638868301</v>
       </c>
       <c r="I13" s="1">
-        <v>1.00948599812378</v>
+        <v>1.0021590707261501</v>
       </c>
       <c r="J13" s="1">
-        <v>0.98931840382317404</v>
+        <v>1.07951358498887</v>
       </c>
       <c r="K13" s="1">
-        <v>1.0453089929795301</v>
+        <v>1.0244728021593099</v>
       </c>
       <c r="L13" s="1">
-        <v>1.02076475460586</v>
+        <v>1.05801862069047</v>
       </c>
       <c r="M13" s="1">
-        <v>1.01293044432283</v>
+        <v>1.0263427697718399</v>
       </c>
       <c r="N13" s="1">
-        <v>1.1616338039474901</v>
+        <v>1.0573227924320501</v>
       </c>
       <c r="O13" s="1">
-        <v>1.03385405590868</v>
+        <v>1.02454526952909</v>
       </c>
       <c r="P13" s="1">
-        <v>1.0471988707870901</v>
+        <v>1.1497739498403301</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.0030880818196499</v>
+        <v>1.0300259996908301</v>
       </c>
       <c r="R13" s="1">
-        <v>0.99356291116189299</v>
+        <v>1.03581313314996</v>
       </c>
       <c r="S13" s="1">
-        <v>1.0343056415916301</v>
+        <v>1.0431173448686</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1279,58 +1276,58 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>1.0575470527733151</v>
+        <v>1.0296494251142523</v>
       </c>
       <c r="C14" s="1">
-        <v>0.95625281374188797</v>
+        <v>1.12179042946842</v>
       </c>
       <c r="D14" s="1">
-        <v>1.1171755779899699</v>
+        <v>1.0705517744668001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.99020306567180805</v>
+        <v>0.93844856728175796</v>
       </c>
       <c r="F14" s="1">
-        <v>1.2296314321099</v>
+        <v>1.1394897350595301</v>
       </c>
       <c r="G14" s="1">
-        <v>1.1084169058984601</v>
+        <v>1.1340451333927499</v>
       </c>
       <c r="H14" s="1">
-        <v>1.0455147638868301</v>
+        <v>1.1012522603706301</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0021590707261501</v>
+        <v>1.0305244566449101</v>
       </c>
       <c r="J14" s="1">
-        <v>1.07951358498887</v>
+        <v>0.94015587714392501</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0244728021593099</v>
+        <v>1.1100338091358899</v>
       </c>
       <c r="L14" s="1">
-        <v>1.05801862069047</v>
+        <v>0.95596460175669995</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0263427697718399</v>
+        <v>1.03315854861464</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0573227924320501</v>
+        <v>0.932423962134032</v>
       </c>
       <c r="O14" s="1">
-        <v>1.02454526952909</v>
+        <v>0.97485669288550503</v>
       </c>
       <c r="P14" s="1">
-        <v>1.1497739498403301</v>
+        <v>1.06335159133172</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0300259996908301</v>
+        <v>1.0378471990168601</v>
       </c>
       <c r="R14" s="1">
-        <v>1.03581313314996</v>
+        <v>0.94453986380672905</v>
       </c>
       <c r="S14" s="1">
-        <v>1.0431173448686</v>
+        <v>0.97560572443149096</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1339,238 +1336,238 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>1.0296494251142523</v>
+        <v>1.1071664140937063</v>
       </c>
       <c r="C15" s="1">
-        <v>1.12179042946842</v>
+        <v>1.1272218709227</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0705517744668001</v>
+        <v>1.0203198192602001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.93844856728175796</v>
+        <v>1.0159632192933401</v>
       </c>
       <c r="F15" s="1">
-        <v>1.1394897350595301</v>
+        <v>1.13824802841703</v>
       </c>
       <c r="G15" s="1">
-        <v>1.1340451333927499</v>
+        <v>1.04202746479763</v>
       </c>
       <c r="H15" s="1">
-        <v>1.1012522603706301</v>
+        <v>0.928975235733145</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0305244566449101</v>
+        <v>1.02230614584504</v>
       </c>
       <c r="J15" s="1">
-        <v>0.94015587714392501</v>
+        <v>1.20866093805692</v>
       </c>
       <c r="K15" s="1">
-        <v>1.1100338091358899</v>
+        <v>1.4770160690046501</v>
       </c>
       <c r="L15" s="1">
-        <v>0.95596460175669995</v>
+        <v>1.19827698098977</v>
       </c>
       <c r="M15" s="1">
-        <v>1.03315854861464</v>
+        <v>0.98952544599135495</v>
       </c>
       <c r="N15" s="1">
-        <v>0.932423962134032</v>
+        <v>1.0137945324853901</v>
       </c>
       <c r="O15" s="1">
-        <v>0.97485669288550503</v>
+        <v>1.2374605553640501</v>
       </c>
       <c r="P15" s="1">
-        <v>1.06335159133172</v>
+        <v>1.05384432231614</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.0378471990168601</v>
+        <v>1.08130735067078</v>
       </c>
       <c r="R15" s="1">
-        <v>0.94453986380672905</v>
+        <v>1.18112472920891</v>
       </c>
       <c r="S15" s="1">
-        <v>0.97560572443149096</v>
+        <v>1.0857563312359599</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>1.1071664140937063</v>
+        <v>1.5483103040176429</v>
       </c>
       <c r="C16" s="1">
-        <v>1.1272218709227</v>
+        <v>1.74576738599861</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0203198192602001</v>
+        <v>1.3704217754691801</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0159632192933401</v>
+        <v>1.74991073366631</v>
       </c>
       <c r="F16" s="1">
-        <v>1.13824802841703</v>
+        <v>1.34523299700932</v>
       </c>
       <c r="G16" s="1">
-        <v>1.04202746479763</v>
+        <v>1.2007477404188101</v>
       </c>
       <c r="H16" s="1">
-        <v>0.928975235733145</v>
+        <v>1.4575586899508599</v>
       </c>
       <c r="I16" s="1">
-        <v>1.02230614584504</v>
+        <v>1.18768868546777</v>
       </c>
       <c r="J16" s="1">
-        <v>1.20866093805692</v>
+        <v>1.7698126445557301</v>
       </c>
       <c r="K16" s="1">
-        <v>1.4770160690046501</v>
+        <v>2.04164178622998</v>
       </c>
       <c r="L16" s="1">
-        <v>1.19827698098977</v>
+        <v>1.30598018232881</v>
       </c>
       <c r="M16" s="1">
-        <v>0.98952544599135495</v>
+        <v>1.7523205336938299</v>
       </c>
       <c r="N16" s="1">
-        <v>1.0137945324853901</v>
+        <v>1.3829361938464699</v>
       </c>
       <c r="O16" s="1">
-        <v>1.2374605553640501</v>
+        <v>1.84337384500959</v>
       </c>
       <c r="P16" s="1">
-        <v>1.05384432231614</v>
+        <v>1.4044599352595899</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.08130735067078</v>
+        <v>1.3451215929104401</v>
       </c>
       <c r="R16" s="1">
-        <v>1.18112472920891</v>
+        <v>1.8780287205736099</v>
       </c>
       <c r="S16" s="1">
-        <v>1.0857563312359599</v>
+        <v>1.5402717259110199</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>1.5483103040176429</v>
+        <v>0.92222044678308845</v>
       </c>
       <c r="C17" s="1">
-        <v>1.74576738599861</v>
+        <v>0.88400900982425401</v>
       </c>
       <c r="D17" s="1">
-        <v>1.3704217754691801</v>
+        <v>0.98927471658227695</v>
       </c>
       <c r="E17" s="1">
-        <v>1.74991073366631</v>
+        <v>0.86448446510056198</v>
       </c>
       <c r="F17" s="1">
-        <v>1.34523299700932</v>
+        <v>0.99910668677570103</v>
       </c>
       <c r="G17" s="1">
-        <v>1.2007477404188101</v>
+        <v>0.95001332361362001</v>
       </c>
       <c r="H17" s="1">
-        <v>1.4575586899508599</v>
+        <v>0.77933731360648895</v>
       </c>
       <c r="I17" s="1">
-        <v>1.18768868546777</v>
+        <v>0.89081411598290805</v>
       </c>
       <c r="J17" s="1">
-        <v>1.7698126445557301</v>
+        <v>0.89650570697394505</v>
       </c>
       <c r="K17" s="1">
-        <v>2.04164178622998</v>
+        <v>1.02003369131398</v>
       </c>
       <c r="L17" s="1">
-        <v>1.30598018232881</v>
+        <v>1.1157519784023699</v>
       </c>
       <c r="M17" s="1">
-        <v>1.7523205336938299</v>
+        <v>0.79354142413965401</v>
       </c>
       <c r="N17" s="1">
-        <v>1.3829361938464699</v>
+        <v>0.86348356170749396</v>
       </c>
       <c r="O17" s="1">
-        <v>1.84337384500959</v>
+        <v>0.93443511577649396</v>
       </c>
       <c r="P17" s="1">
-        <v>1.4044599352595899</v>
+        <v>0.97657032430504798</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.3451215929104401</v>
+        <v>0.884403899972107</v>
       </c>
       <c r="R17" s="1">
-        <v>1.8780287205736099</v>
+        <v>0.93592747721442204</v>
       </c>
       <c r="S17" s="1">
-        <v>1.5402717259110199</v>
+        <v>0.900054784021177</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>0.92222044678308845</v>
+        <v>0.99061880040091899</v>
       </c>
       <c r="C18" s="1">
-        <v>0.88400900982425401</v>
+        <v>1.06957016335647</v>
       </c>
       <c r="D18" s="1">
-        <v>0.98927471658227695</v>
+        <v>0.996615737634028</v>
       </c>
       <c r="E18" s="1">
-        <v>0.86448446510056198</v>
+        <v>0.98522713062303702</v>
       </c>
       <c r="F18" s="1">
-        <v>0.99910668677570103</v>
+        <v>0.91861796083584202</v>
       </c>
       <c r="G18" s="1">
-        <v>0.95001332361362001</v>
+        <v>0.95613922557108699</v>
       </c>
       <c r="H18" s="1">
-        <v>0.77933731360648895</v>
+        <v>1.0038601399779701</v>
       </c>
       <c r="I18" s="1">
-        <v>0.89081411598290805</v>
+        <v>1.0517143379734499</v>
       </c>
       <c r="J18" s="1">
-        <v>0.89650570697394505</v>
+        <v>0.96392000762025098</v>
       </c>
       <c r="K18" s="1">
-        <v>1.02003369131398</v>
+        <v>0.93952501099487595</v>
       </c>
       <c r="L18" s="1">
-        <v>1.1157519784023699</v>
+        <v>1.00329822924261</v>
       </c>
       <c r="M18" s="1">
-        <v>0.79354142413965401</v>
+        <v>0.97161533014758505</v>
       </c>
       <c r="N18" s="1">
-        <v>0.86348356170749396</v>
+        <v>1.00727568600783</v>
       </c>
       <c r="O18" s="1">
-        <v>0.93443511577649396</v>
+        <v>0.99547394681776002</v>
       </c>
       <c r="P18" s="1">
-        <v>0.97657032430504798</v>
+        <v>1.0209603093939199</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.884403899972107</v>
+        <v>1.0018375283412</v>
       </c>
       <c r="R18" s="1">
-        <v>0.93592747721442204</v>
+        <v>0.99958955290172902</v>
       </c>
       <c r="S18" s="1">
-        <v>0.900054784021177</v>
+        <v>0.95527930937597805</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1579,58 +1576,58 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>0.99061880040091899</v>
+        <v>0.99335082849067791</v>
       </c>
       <c r="C19" s="1">
-        <v>1.06957016335647</v>
+        <v>0.97875519546011203</v>
       </c>
       <c r="D19" s="1">
-        <v>0.996615737634028</v>
+        <v>1.0104169831324401</v>
       </c>
       <c r="E19" s="1">
-        <v>0.98522713062303702</v>
+        <v>1.00348204715178</v>
       </c>
       <c r="F19" s="1">
-        <v>0.91861796083584202</v>
+        <v>0.91958387102100603</v>
       </c>
       <c r="G19" s="1">
-        <v>0.95613922557108699</v>
+        <v>0.96901785580634103</v>
       </c>
       <c r="H19" s="1">
-        <v>1.0038601399779701</v>
+        <v>1.0008853071393999</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0517143379734499</v>
+        <v>1.0152664407360099</v>
       </c>
       <c r="J19" s="1">
-        <v>0.96392000762025098</v>
+        <v>0.98673527094665403</v>
       </c>
       <c r="K19" s="1">
-        <v>0.93952501099487595</v>
+        <v>0.98640078901385897</v>
       </c>
       <c r="L19" s="1">
-        <v>1.00329822924261</v>
+        <v>1.00018571125901</v>
       </c>
       <c r="M19" s="1">
-        <v>0.97161533014758505</v>
+        <v>0.99503850374164404</v>
       </c>
       <c r="N19" s="1">
-        <v>1.00727568600783</v>
+        <v>1.0047730423975101</v>
       </c>
       <c r="O19" s="1">
-        <v>0.99547394681776002</v>
+        <v>1.0055513313876301</v>
       </c>
       <c r="P19" s="1">
-        <v>1.0209603093939199</v>
+        <v>1.0127382747398901</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.0018375283412</v>
+        <v>1.00775292514682</v>
       </c>
       <c r="R19" s="1">
-        <v>0.99958955290172902</v>
+        <v>1.0006117496164799</v>
       </c>
       <c r="S19" s="1">
-        <v>0.95527930937597805</v>
+        <v>0.98976878564493898</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1639,58 +1636,58 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>0.99335082849067791</v>
+        <v>0.98617697059210485</v>
       </c>
       <c r="C20" s="1">
-        <v>0.97875519546011203</v>
+        <v>0.96992088744331095</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0104169831324401</v>
+        <v>1.0050206018718599</v>
       </c>
       <c r="E20" s="1">
-        <v>1.00348204715178</v>
+        <v>0.985044534250893</v>
       </c>
       <c r="F20" s="1">
-        <v>0.91958387102100603</v>
+        <v>0.91714805065723104</v>
       </c>
       <c r="G20" s="1">
-        <v>0.96901785580634103</v>
+        <v>0.95811555651727898</v>
       </c>
       <c r="H20" s="1">
-        <v>1.0008853071393999</v>
+        <v>0.99409433684013304</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0152664407360099</v>
+        <v>1.0410333834935701</v>
       </c>
       <c r="J20" s="1">
-        <v>0.98673527094665403</v>
+        <v>0.97557761614128402</v>
       </c>
       <c r="K20" s="1">
-        <v>0.98640078901385897</v>
+        <v>0.94366588773554105</v>
       </c>
       <c r="L20" s="1">
-        <v>1.00018571125901</v>
+        <v>1.0006321202375299</v>
       </c>
       <c r="M20" s="1">
-        <v>0.99503850374164404</v>
+        <v>0.97583839803337102</v>
       </c>
       <c r="N20" s="1">
-        <v>1.0047730423975101</v>
+        <v>1.00262582533414</v>
       </c>
       <c r="O20" s="1">
-        <v>1.0055513313876301</v>
+        <v>0.992635779195993</v>
       </c>
       <c r="P20" s="1">
-        <v>1.0127382747398901</v>
+        <v>1.02754267916963</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.00775292514682</v>
+        <v>1.0074243626814701</v>
       </c>
       <c r="R20" s="1">
-        <v>1.0006117496164799</v>
+        <v>1.00992227260348</v>
       </c>
       <c r="S20" s="1">
-        <v>0.98976878564493898</v>
+        <v>0.95876620785906597</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1699,58 +1696,58 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>0.98617697059210485</v>
+        <v>0.99684761276853251</v>
       </c>
       <c r="C21" s="1">
-        <v>0.96992088744331095</v>
+        <v>1.01424085693258</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0050206018718599</v>
+        <v>1.00238071734287</v>
       </c>
       <c r="E21" s="1">
-        <v>0.985044534250893</v>
+        <v>0.98976053854313195</v>
       </c>
       <c r="F21" s="1">
-        <v>0.91714805065723104</v>
+        <v>0.98160572720222705</v>
       </c>
       <c r="G21" s="1">
-        <v>0.95811555651727898</v>
+        <v>0.96968430015173701</v>
       </c>
       <c r="H21" s="1">
-        <v>0.99409433684013304</v>
+        <v>0.98814996071454697</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0410333834935701</v>
+        <v>1.06035211874979</v>
       </c>
       <c r="J21" s="1">
-        <v>0.97557761614128402</v>
+        <v>0.97401708925242403</v>
       </c>
       <c r="K21" s="1">
-        <v>0.94366588773554105</v>
+        <v>0.96821044335564399</v>
       </c>
       <c r="L21" s="1">
-        <v>1.0006321202375299</v>
+        <v>1.04750519215311</v>
       </c>
       <c r="M21" s="1">
-        <v>0.97583839803337102</v>
+        <v>0.96654425988514103</v>
       </c>
       <c r="N21" s="1">
-        <v>1.00262582533414</v>
+        <v>0.98637809660819598</v>
       </c>
       <c r="O21" s="1">
-        <v>0.992635779195993</v>
+        <v>1.0036542509967099</v>
       </c>
       <c r="P21" s="1">
-        <v>1.02754267916963</v>
+        <v>1.03023383252339</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.0074243626814701</v>
+        <v>1.0065716387802</v>
       </c>
       <c r="R21" s="1">
-        <v>1.00992227260348</v>
+        <v>1.00650685812068</v>
       </c>
       <c r="S21" s="1">
-        <v>0.95876620785906597</v>
+        <v>0.95061353575267205</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1759,418 +1756,358 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>0.99684761276853251</v>
+        <v>1.0301816628264699</v>
       </c>
       <c r="C22" s="1">
-        <v>1.01424085693258</v>
+        <v>1.03731128273884</v>
       </c>
       <c r="D22" s="1">
-        <v>1.00238071734287</v>
+        <v>1.0715404466718901</v>
       </c>
       <c r="E22" s="1">
-        <v>0.98976053854313195</v>
+        <v>1.01671211836175</v>
       </c>
       <c r="F22" s="1">
-        <v>0.98160572720222705</v>
+        <v>0.98352611727357098</v>
       </c>
       <c r="G22" s="1">
-        <v>0.96968430015173701</v>
+        <v>0.99731199668882597</v>
       </c>
       <c r="H22" s="1">
-        <v>0.98814996071454697</v>
+        <v>0.99720628855384197</v>
       </c>
       <c r="I22" s="1">
-        <v>1.06035211874979</v>
+        <v>1.1197541579782799</v>
       </c>
       <c r="J22" s="1">
-        <v>0.97401708925242403</v>
+        <v>0.97086869317787505</v>
       </c>
       <c r="K22" s="1">
-        <v>0.96821044335564399</v>
+        <v>1.0240049126392901</v>
       </c>
       <c r="L22" s="1">
-        <v>1.04750519215311</v>
+        <v>1.1823969680770099</v>
       </c>
       <c r="M22" s="1">
-        <v>0.96654425988514103</v>
+        <v>0.93764661120687498</v>
       </c>
       <c r="N22" s="1">
-        <v>0.98637809660819598</v>
+        <v>1.02030284721136</v>
       </c>
       <c r="O22" s="1">
-        <v>1.0036542509967099</v>
+        <v>1.0237359840703499</v>
       </c>
       <c r="P22" s="1">
-        <v>1.03023383252339</v>
+        <v>1.0604337382115301</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.0065716387802</v>
+        <v>1.0658939956618201</v>
       </c>
       <c r="R22" s="1">
-        <v>1.00650685812068</v>
+        <v>1.0602126691239599</v>
       </c>
       <c r="S22" s="1">
-        <v>0.95061353575267205</v>
+        <v>0.94422944040291601</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>1.0301816628264699</v>
+        <v>0.97986480859896097</v>
       </c>
       <c r="C23" s="1">
-        <v>1.03731128273884</v>
+        <v>1.04597757977383</v>
       </c>
       <c r="D23" s="1">
-        <v>1.0715404466718901</v>
+        <v>0.98037037171044905</v>
       </c>
       <c r="E23" s="1">
-        <v>1.01671211836175</v>
+        <v>0.93536882751927197</v>
       </c>
       <c r="F23" s="1">
-        <v>0.98352611727357098</v>
+        <v>0.92699943716650601</v>
       </c>
       <c r="G23" s="1">
-        <v>0.99731199668882597</v>
+        <v>0.96388134430502204</v>
       </c>
       <c r="H23" s="1">
-        <v>0.99720628855384197</v>
+        <v>0.98744249378184701</v>
       </c>
       <c r="I23" s="1">
-        <v>1.1197541579782799</v>
+        <v>1.0449953593155801</v>
       </c>
       <c r="J23" s="1">
-        <v>0.97086869317787505</v>
+        <v>0.96947542694022104</v>
       </c>
       <c r="K23" s="1">
-        <v>1.0240049126392901</v>
+        <v>0.93626172623896797</v>
       </c>
       <c r="L23" s="1">
-        <v>1.1823969680770099</v>
+        <v>1.00051098941218</v>
       </c>
       <c r="M23" s="1">
-        <v>0.93764661120687498</v>
+        <v>0.96300604398590595</v>
       </c>
       <c r="N23" s="1">
-        <v>1.02030284721136</v>
+        <v>0.99414444056356799</v>
       </c>
       <c r="O23" s="1">
-        <v>1.0237359840703499</v>
+        <v>0.96402531260111302</v>
       </c>
       <c r="P23" s="1">
-        <v>1.0604337382115301</v>
+        <v>1.0135785774050201</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.0658939956618201</v>
+        <v>0.97417333316641397</v>
       </c>
       <c r="R23" s="1">
-        <v>1.0602126691239599</v>
+        <v>1.00257110515885</v>
       </c>
       <c r="S23" s="1">
-        <v>0.94422944040291601</v>
+        <v>0.95491937713758801</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>0.97963633936343586</v>
+        <v>0.98886746877210874</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0227099214381801</v>
+        <v>0.97583378025282097</v>
       </c>
       <c r="D24" s="1">
-        <v>0.93639283255005801</v>
+        <v>1.0022608018138099</v>
       </c>
       <c r="E24" s="1">
-        <v>0.96959071695510501</v>
+        <v>0.98608254766449599</v>
       </c>
       <c r="F24" s="1">
-        <v>0.96685904370065701</v>
+        <v>0.92756061739263296</v>
       </c>
       <c r="G24" s="1">
-        <v>0.97039625946655095</v>
+        <v>0.98143843234732797</v>
       </c>
       <c r="H24" s="1">
-        <v>0.99278666774593805</v>
+        <v>0.99423362979357699</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0512854988835001</v>
+        <v>1.0086154241579699</v>
       </c>
       <c r="J24" s="1">
-        <v>0.98126525726855796</v>
+        <v>0.98227425089409803</v>
       </c>
       <c r="K24" s="1">
-        <v>0.92256453397096405</v>
+        <v>0.98134032573097996</v>
       </c>
       <c r="L24" s="1">
-        <v>0.97777728479167203</v>
+        <v>0.99349296153038902</v>
       </c>
       <c r="M24" s="1">
-        <v>0.97385518470514498</v>
+        <v>0.98722533062497098</v>
       </c>
       <c r="N24" s="1">
-        <v>1.0034663146048499</v>
+        <v>0.98886489654060905</v>
       </c>
       <c r="O24" s="1">
-        <v>0.953056642125514</v>
+        <v>0.99615126304859203</v>
       </c>
       <c r="P24" s="1">
-        <v>1.0420120677588001</v>
+        <v>1.0140269835972699</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.99223110622890798</v>
+        <v>1.00097752249271</v>
       </c>
       <c r="R24" s="1">
-        <v>0.95933937039623596</v>
+        <v>1.0024547837783899</v>
       </c>
       <c r="S24" s="1">
-        <v>0.93822906658777105</v>
+        <v>0.987913417465203</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>0.99301623858957322</v>
+        <v>0.97599132932297694</v>
       </c>
       <c r="C25" s="1">
-        <v>0.96383222073988295</v>
+        <v>0.96086617021750198</v>
       </c>
       <c r="D25" s="1">
-        <v>1.00032272840508</v>
+        <v>0.984487359115927</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0005344164515899</v>
+        <v>0.94350760036119297</v>
       </c>
       <c r="F25" s="1">
-        <v>0.96983556451895103</v>
+        <v>0.92509085075441</v>
       </c>
       <c r="G25" s="1">
-        <v>0.99118168126360295</v>
+        <v>0.96714292484852604</v>
       </c>
       <c r="H25" s="1">
-        <v>0.99804484174507102</v>
+        <v>0.97735806847344697</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0190506950878899</v>
+        <v>1.0347593164521001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.98865219522051995</v>
+        <v>0.97312021189505005</v>
       </c>
       <c r="K25" s="1">
-        <v>0.96982932320660398</v>
+        <v>0.93863937375179896</v>
       </c>
       <c r="L25" s="1">
-        <v>0.98895300891378601</v>
+        <v>0.99425856294405601</v>
       </c>
       <c r="M25" s="1">
-        <v>0.99275950429485205</v>
+        <v>0.96652334697124198</v>
       </c>
       <c r="N25" s="1">
-        <v>1.00490381022199</v>
+        <v>0.99002716627671095</v>
       </c>
       <c r="O25" s="1">
-        <v>1.0017307605408901</v>
+        <v>0.967543744285987</v>
       </c>
       <c r="P25" s="1">
-        <v>1.01326679647299</v>
+        <v>1.0200556220049199</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.0091458443891399</v>
+        <v>0.979395602219156</v>
       </c>
       <c r="R25" s="1">
-        <v>0.99874278350052803</v>
+        <v>1.0121153054538199</v>
       </c>
       <c r="S25" s="1">
-        <v>0.97048988104937794</v>
+        <v>0.95696137246476098</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>0.97567790673421184</v>
+        <v>0.98378025862620999</v>
       </c>
       <c r="C26" s="1">
-        <v>0.941824824567568</v>
+        <v>0.99848024594363705</v>
       </c>
       <c r="D26" s="1">
-        <v>0.950226311903411</v>
+        <v>0.979923691338905</v>
       </c>
       <c r="E26" s="1">
-        <v>0.97115328177013505</v>
+        <v>0.92396308754116196</v>
       </c>
       <c r="F26" s="1">
-        <v>0.96937165578247997</v>
+        <v>0.98174572991307796</v>
       </c>
       <c r="G26" s="1">
-        <v>0.97433437486627905</v>
+        <v>0.97319506804938205</v>
       </c>
       <c r="H26" s="1">
-        <v>0.98371007046632997</v>
+        <v>0.97356872905759895</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0453748195532899</v>
+        <v>1.05455207461038</v>
       </c>
       <c r="J26" s="1">
-        <v>0.98645882094112203</v>
+        <v>0.983753733180044</v>
       </c>
       <c r="K26" s="1">
-        <v>0.92177328603897801</v>
+        <v>0.95973956581537401</v>
       </c>
       <c r="L26" s="1">
-        <v>0.97524709514315899</v>
+        <v>1.03381065368422</v>
       </c>
       <c r="M26" s="1">
-        <v>0.97223492584681204</v>
+        <v>0.95760150116003095</v>
       </c>
       <c r="N26" s="1">
-        <v>1.0008239321449099</v>
+        <v>0.98058546430809301</v>
       </c>
       <c r="O26" s="1">
-        <v>0.95665833603663497</v>
+        <v>0.96551790542918103</v>
       </c>
       <c r="P26" s="1">
-        <v>1.0229756451259699</v>
+        <v>1.01809830528122</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.99593936391253002</v>
+        <v>0.97468701441102801</v>
       </c>
       <c r="R26" s="1">
-        <v>0.97402588229331299</v>
+        <v>1.0097837851259499</v>
       </c>
       <c r="S26" s="1">
-        <v>0.94439178808868096</v>
+        <v>0.95525784179628104</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>0.98392771679840718</v>
+        <v>1.0094192331374707</v>
       </c>
       <c r="C27" s="1">
-        <v>0.97545118147865695</v>
+        <v>1.03727179307938</v>
       </c>
       <c r="D27" s="1">
-        <v>0.89755160276602797</v>
+        <v>1.0406277514987701</v>
       </c>
       <c r="E27" s="1">
-        <v>0.96679631670446298</v>
+        <v>0.88865063059444704</v>
       </c>
       <c r="F27" s="1">
-        <v>1.0104934629701099</v>
+        <v>0.98801545162022197</v>
       </c>
       <c r="G27" s="1">
-        <v>0.97881866007724405</v>
+        <v>0.99574094011579195</v>
       </c>
       <c r="H27" s="1">
-        <v>0.98095067759128696</v>
+        <v>0.96614893096719501</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0677051008891401</v>
+        <v>1.1479564095305199</v>
       </c>
       <c r="J27" s="1">
-        <v>0.99048822742110199</v>
+        <v>1.0168312214358499</v>
       </c>
       <c r="K27" s="1">
-        <v>0.94600067901733298</v>
+        <v>1.0274585785035999</v>
       </c>
       <c r="L27" s="1">
-        <v>1.0150950836619801</v>
+        <v>1.16114977791382</v>
       </c>
       <c r="M27" s="1">
-        <v>0.97435159769939905</v>
+        <v>0.90408437747997294</v>
       </c>
       <c r="N27" s="1">
-        <v>0.98939254929820497</v>
+        <v>1.01008835975019</v>
       </c>
       <c r="O27" s="1">
-        <v>0.95777942524801296</v>
+        <v>0.96694321678102302</v>
       </c>
       <c r="P27" s="1">
-        <v>1.0802777199321001</v>
+        <v>1.0242654890476499</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.98459986553914502</v>
+        <v>0.97525497716405296</v>
       </c>
       <c r="R27" s="1">
-        <v>0.97042143863881702</v>
+        <v>1.0654096174515999</v>
       </c>
       <c r="S27" s="1">
-        <v>0.94059759663989795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0301560906146277</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.98567654283678796</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.93635590138885105</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.97675647707873603</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.98801545162022197</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.99731199668882597</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.98625811954422804</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.2497322418999599</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1.0184912171634799</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1.02397950878155</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1.16114977791382</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.98493074831559402</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1.02366351623311</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.98040934392588797</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1.1937531849812399</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1.01771575105351</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1.0561188381637601</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.93233492285910502</v>
+        <v>0.94422944040291601</v>
       </c>
     </row>
   </sheetData>
